--- a/homework/hw07/02bjt/工作簿1.xlsx
+++ b/homework/hw07/02bjt/工作簿1.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12225" activeTab="1"/>
+    <workbookView windowWidth="8715" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$22:$D$41</definedName>
@@ -23,9 +22,6 @@
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$82:$E$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
@@ -52,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,7 +63,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,32 +99,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,9 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,24 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,20 +212,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,13 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,13 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +252,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +282,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,90 +402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -413,131 +416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +440,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,36 +464,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,188 +487,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,2722 +735,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.596</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.99</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="General">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="General">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="General">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="General">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="General">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="General">
-                  <c:v>2.12</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="General">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="General">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="General">
-                  <c:v>2.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1145698528"/>
-        <c:axId val="1145716944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1145698528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145716944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1145716944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145698528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$22:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.098</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.195</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>0.294</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>0.392</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>0.491</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="General">
-                  <c:v>0.592</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>0.692</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="General">
-                  <c:v>0.892</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="General">
-                  <c:v>0.991</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="General">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="General">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="General">
-                  <c:v>3.989</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="General">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="General">
-                  <c:v>5.99</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="General">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="General">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="General">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="General">
-                  <c:v>9.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$22:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1151090768"/>
-        <c:axId val="1147924240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1151090768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1147924240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1147924240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1151090768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$42:$D$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.097</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.588</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.689</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.788</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.888</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.986</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.985</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.985</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$42:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1145697328"/>
-        <c:axId val="1145719024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1145697328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145719024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1145719024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145697328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$62:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.487</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.687</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.786</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.985</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.98</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$62:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.63</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1158024336"/>
-        <c:axId val="1145722768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1158024336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145722768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1145722768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1158024336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0181407638722075"/>
-          <c:y val="0.00890740147388657"/>
-          <c:w val="0.976046120586116"/>
-          <c:h val="0.964588272989426"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$82:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.685</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.785</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.883</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.979</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.979</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.975</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.97</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.98</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$82:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.596</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.99</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="General">
-                  <c:v>2.01</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="General">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="General">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="General">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="General">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="General">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="General">
-                  <c:v>2.12</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="General">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="General">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="General">
-                  <c:v>2.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$22:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.098</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.195</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>0.294</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>0.392</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>0.491</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="General">
-                  <c:v>0.592</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>0.692</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="General">
-                  <c:v>0.892</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="General">
-                  <c:v>0.991</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="General">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="General">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="General">
-                  <c:v>3.989</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="General">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="General">
-                  <c:v>5.99</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="General">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="General">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="General">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="General">
-                  <c:v>9.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$22:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$42:$D$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.097</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.588</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.689</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.788</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.888</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.986</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.985</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.985</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$42:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$62:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.487</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.687</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.786</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.985</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.98</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$62:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.63</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1158024336"/>
-        <c:axId val="1145722768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1158024336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145722768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1145722768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1158024336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4420,6 +1572,2666 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1324017952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"20u"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>2.01</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>2.01</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>2.01</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="General">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="General">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="General">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="General">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="General">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="General">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="General">
+                  <c:v>2.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"40u"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0.294</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0.392</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0.491</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0.592</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0.692</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>0.892</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>0.991</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="General">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="General">
+                  <c:v>3.989</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="General">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="General">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="General">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="General">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="General">
+                  <c:v>9.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"60u"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"80u"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$62:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$62:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"100u"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$82:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$82:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408078160"/>
+        <c:axId val="486623184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408078160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486623184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486623184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408078160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0.294</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0.392</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0.491</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>0.592</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>0.692</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>0.892</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>0.991</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="General">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="General">
+                  <c:v>3.989</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="General">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="General">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="General">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="General">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="General">
+                  <c:v>9.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="405556848"/>
+        <c:axId val="403295008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="405556848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403295008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403295008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405556848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395062288"/>
+        <c:axId val="395061872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395062288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395061872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395061872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395062288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$62:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$62:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480725904"/>
+        <c:axId val="395062288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="480725904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395062288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395062288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480725904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$82:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$82:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408078160"/>
+        <c:axId val="486623184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408078160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486623184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486623184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408078160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7252,156 +7064,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17780</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5481320" y="2390775"/>
-        <a:ext cx="5071110" cy="2929890"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10170160" y="4867275"/>
-        <a:ext cx="5048250" cy="2929890"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5664200" y="7740015"/>
-        <a:ext cx="5071110" cy="2929890"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>455930</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10168890" y="7717155"/>
-        <a:ext cx="5057140" cy="2929890"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>485140</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11603355" y="6242050"/>
-        <a:ext cx="13164185" cy="9909175"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
@@ -7418,8 +7080,158 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5796915" y="19963130"/>
+        <a:off x="5885815" y="19963130"/>
         <a:ext cx="4928235" cy="3225165"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10650855" y="1156335"/>
+        <a:ext cx="4457700" cy="5226685"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505692</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90055</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5450840" y="1346835"/>
+        <a:ext cx="4440555" cy="2899410"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8153400" y="7484745"/>
+        <a:ext cx="4457700" cy="2898775"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8153400" y="12628245"/>
+        <a:ext cx="4457700" cy="2898775"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8153400" y="14914245"/>
+        <a:ext cx="4457700" cy="2898775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7430,156 +7242,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="44125.473900463" refreshedBy="pannenetsf" recordCount="19">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D2:E21" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="0" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.99" count="19">
-        <n v="0.099"/>
-        <n v="0.197"/>
-        <n v="0.296"/>
-        <n v="0.397"/>
-        <n v="0.497"/>
-        <n v="0.596"/>
-        <n v="0.696"/>
-        <n v="0.796"/>
-        <n v="0.895"/>
-        <n v="0.996"/>
-        <n v="1.996"/>
-        <n v="2.995"/>
-        <n v="3.994"/>
-        <n v="5"/>
-        <n v="5.99"/>
-        <n v="6.99"/>
-        <n v="7.99"/>
-        <n v="8.99"/>
-        <n v="9.99"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="0.00E+00" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.17" count="16">
-        <n v="0.74"/>
-        <n v="1.73"/>
-        <n v="1.92"/>
-        <n v="1.98"/>
-        <n v="1.99"/>
-        <n v="2"/>
-        <n v="2.01"/>
-        <n v="2.04"/>
-        <n v="2.06"/>
-        <n v="2.08"/>
-        <n v="2.09"/>
-        <n v="2.11"/>
-        <n v="2.12"/>
-        <n v="2.13"/>
-        <n v="2.16"/>
-        <n v="2.17"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="15"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7840,120 +7502,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="S21" workbookViewId="0">
-      <selection activeCell="BB34" sqref="BB34"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="10.4380952380952" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7965,7 +7523,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -7973,7 +7531,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2.14e-5</v>
       </c>
       <c r="B2">
@@ -7985,7 +7543,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8199,7 +7757,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>4.002e-5</v>
       </c>
       <c r="B22">
@@ -8208,7 +7766,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.008</v>
       </c>
       <c r="E22">
@@ -8425,7 +7983,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>6.001e-5</v>
       </c>
       <c r="B42">
@@ -8651,7 +8209,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>8.005e-5</v>
       </c>
       <c r="B62">
@@ -8877,7 +8435,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>0.0001</v>
       </c>
       <c r="B82">
